--- a/biology/Botanique/Combretum_rotundifolium/Combretum_rotundifolium.xlsx
+++ b/biology/Botanique/Combretum_rotundifolium/Combretum_rotundifolium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Combretum rotundifolium est une espèce néotropicale d'arbre, appartenant à la famille des Combretaceae.
-En Guyane, il est connu sous les noms de Feuille singe rouge, Peigne singe rouge, Queue du singe rouge (Créole)[3], Moyu akãta (Wayãpi), Meu abesu (Palikur)[4], Ingi bosso (Aluku)[5]
-Au Suriname, on l'appelle Arimaka, Sekema (Karib), Baredaballi, Maribena, Jalimana (Arawak), Bosroe, Vreemoesse-noto (Sranan tongo)[6].
-On la nomme Abelero au Venezuela[7].
+En Guyane, il est connu sous les noms de Feuille singe rouge, Peigne singe rouge, Queue du singe rouge (Créole), Moyu akãta (Wayãpi), Meu abesu (Palikur), Ingi bosso (Aluku)
+Au Suriname, on l'appelle Arimaka, Sekema (Karib), Baredaballi, Maribena, Jalimana (Arawak), Bosroe, Vreemoesse-noto (Sranan tongo).
+On la nomme Abelero au Venezuela.
 On rapporte aussi les noms de  Escova-de-Macaco (portugais), Monkey's brush (Anglais).
 </t>
         </is>
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Combretum rotundifolium est une liane ligneuse montant jusqu'à 20 m avec une tige atteignant jusqu'à 10 cm de diamètre, ou parfois un arbuste haut jusqu'à 2,5-4(10) m.
 Elle porte les typiques 'poils combrétacés' (souvent très clairsemé et présence d'écailles peltées).
@@ -537,8 +551,8 @@
 Le style est long de 25,5-42 mm, s'étendant jusqu'aux étamines.
 Le fruit, qui porte 4 ailes larges de 4.0.6-1,1 cm, est long de moins de 2-3(3,9) cm pour (1,3)1,5-3 cm de large (environ 1,5 fois plus long que large), de forme oblongue ou suborbiculaire, et modérément à densément couvert surtout sur le corps d'écailles rougeâtres, mesurant environ 70-250(-275) µm de diamètre, et comportant environ 35-70 cellules marginales.
 Son apex est oblong à elliptique ou largement elliptique arrondi ou tronqué à profondément rétus et à peine apiculé.
-Sa base est arrondie ou tronquée à rétuse avec un pseudostipe étroit très distinct long de 0,8-3 mm[6],[8],[3].
-NB : Combretum rotundifolium est très similaire à C. fruticosum, mais s'en différencie par ses trichomes peltés rouges et par ses fleurs et fruits nettement plus gros[7].
+Sa base est arrondie ou tronquée à rétuse avec un pseudostipe étroit très distinct long de 0,8-3 mm.
+NB : Combretum rotundifolium est très similaire à C. fruticosum, mais s'en différencie par ses trichomes peltés rouges et par ses fleurs et fruits nettement plus gros.
 </t>
         </is>
       </c>
@@ -567,9 +581,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Combretum rotundifolium est présent de la Colombie au Brésil (bassin inférieur de l'Amazone, s'étendant plus éparsement vers l'Ouest et le Sud), en passant par le Venezuela, le Pérou, le Guyana, le Suriname, et la Guyane[7],[6],[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Combretum rotundifolium est présent de la Colombie au Brésil (bassin inférieur de l'Amazone, s'étendant plus éparsement vers l'Ouest et le Sud), en passant par le Venezuela, le Pérou, le Guyana, le Suriname, et la Guyane.
 </t>
         </is>
       </c>
@@ -598,18 +614,20 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Combretum rotundifolium est une liane de taille moyenne poussant dans les forêts décidues ou sempervirentes inondées, saisonnièrement inondées ou non inondées, souvent au bord des cours d'eau, sur sols argileux ou sableux, principalement dans les basses terres[8],[4].
-On le rencontre au Venezuela dans les forêts sempervirentes de plaine et ripicoles autour de 0–300 m d'altitude[7].
-En Guyane, il fleurit en août, et pousse dans les forêts anciennes de terre ferme (non inondées)[3], et est commun dans les végétations secondaires et ripicoles[4].
-L'anatomie et la physiologie des faisceaux conduteurs de Combretum rotundifolium (xylème et phloème) ont été étudiés[9].
-Les fleurs de Combretum rotundifolium sont ornithophile (pollinisationes par des Trochiliformes, et Passeriformes) et entomophile (pollinisationes par des Lepidoptera et Hymenoptera), à Espírito Santo (Brésil)[10].
-L'anatomie des fruits de Combretum rotundifolium a été décrite en détail[11]
-Les feuilles de Combretum rotundifolium reste fonctionnelles pour la photosynthèse à des températures élevées : sans perte d'efficacité jusqu'à 44,14 °C et 50 % de dommage à partir de 50,75 °C[12].
-Les fruits de Combretum rotundifolium sont consommés par les singes-araignées (Ateles spp.)[13].
-Les fruits ailés de Combretum rotundifolium sont dispersés par le vent (anémochorie)[14].
-Combretum rotundifolium est une plante adventice des cultures : on le trouve parmi la végétation secondaire des systèmes agricoles de l'Est-Amazonien[15].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Combretum rotundifolium est une liane de taille moyenne poussant dans les forêts décidues ou sempervirentes inondées, saisonnièrement inondées ou non inondées, souvent au bord des cours d'eau, sur sols argileux ou sableux, principalement dans les basses terres,.
+On le rencontre au Venezuela dans les forêts sempervirentes de plaine et ripicoles autour de 0–300 m d'altitude.
+En Guyane, il fleurit en août, et pousse dans les forêts anciennes de terre ferme (non inondées), et est commun dans les végétations secondaires et ripicoles.
+L'anatomie et la physiologie des faisceaux conduteurs de Combretum rotundifolium (xylème et phloème) ont été étudiés.
+Les fleurs de Combretum rotundifolium sont ornithophile (pollinisationes par des Trochiliformes, et Passeriformes) et entomophile (pollinisationes par des Lepidoptera et Hymenoptera), à Espírito Santo (Brésil).
+L'anatomie des fruits de Combretum rotundifolium a été décrite en détail
+Les feuilles de Combretum rotundifolium reste fonctionnelles pour la photosynthèse à des températures élevées : sans perte d'efficacité jusqu'à 44,14 °C et 50 % de dommage à partir de 50,75 °C.
+Les fruits de Combretum rotundifolium sont consommés par les singes-araignées (Ateles spp.).
+Les fruits ailés de Combretum rotundifolium sont dispersés par le vent (anémochorie).
+Combretum rotundifolium est une plante adventice des cultures : on le trouve parmi la végétation secondaire des systèmes agricoles de l'Est-Amazonien.
 </t>
         </is>
       </c>
@@ -638,13 +656,15 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En Guyane, chez les Wayãpi on emploie la décoction des tiges écrasées de Combretum rotundifolium en lavage externe comme fébrifuge et l'abondante sève s'écoulant des tiges est posée sur le front contre les céphalées.
-Les Palikur, l'emploient pour favoriser la fertilité féminine : elles consomment la décoction de rameaux très feuillus, mélangée avec un œuf cru de coq de roche (Rupicola rupicola)[4].
-Les Aluku consomment la décoction de tiges et feuilles sont écrasées dans l'eau froide pour soigner les douleurs dues à un refroidissement, et se lavent les yeux avec la sève, avec la décoction refroidie de feuilles mises dans un linge ou dans une feuille de bananier, pour guérir les blessures oculaires[5].
-En Colombie, les Carijona (en) mâchent les fleurs de Combretum rotundifolium pour stopper le saignement des gencives [16].
-Les Combretum contiennent généralement des saponines triterpéniques[17],[18], de la caféine et des tanins[19].
+Les Palikur, l'emploient pour favoriser la fertilité féminine : elles consomment la décoction de rameaux très feuillus, mélangée avec un œuf cru de coq de roche (Rupicola rupicola).
+Les Aluku consomment la décoction de tiges et feuilles sont écrasées dans l'eau froide pour soigner les douleurs dues à un refroidissement, et se lavent les yeux avec la sève, avec la décoction refroidie de feuilles mises dans un linge ou dans une feuille de bananier, pour guérir les blessures oculaires.
+En Colombie, les Carijona (en) mâchent les fleurs de Combretum rotundifolium pour stopper le saignement des gencives .
+Les Combretum contiennent généralement des saponines triterpéniques de la caféine et des tanins.
 </t>
         </is>
       </c>
@@ -673,9 +693,11 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On a isolé des molécules originales de la famille des arabinofuranoside damarane acides dans les feuilles de Combretum rotundifolium[20].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On a isolé des molécules originales de la famille des arabinofuranoside damarane acides dans les feuilles de Combretum rotundifolium.
 </t>
         </is>
       </c>
@@ -704,9 +726,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant pour Combretum laxum Aubl. (syn. : Combretum rotundifolium Rich.)[21] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant pour Combretum laxum Aubl. (syn. : Combretum rotundifolium Rich.) :
 « COMBRETUM (laxum). (Tabula 137.)Combretum (laxum) ſpicis laxis. Lin. Spec. Combretum floribus octandris, ſpicis laxis, ſecundis. Jacq. Amer.19.Gaura fruticoſi ſubſcandens, foliis oppoſitis. LŒFL. It. 248. p. 310.Anonymos ſcandens, fructu membranaceo quadri-alato. PLUM. Mſſ. tom. 5. fig. 127.
 Frutex ramos plures ſarmentoſos, nodoſos, ſuprà arbores vicinas ſparſos, è caudice emittens, ramulis ſummis tetragonis folioſis &amp; florifetis. Folia oppoſita, ovato acuminata, integerrima, glabra, brevi petiolata. Flores ſpicati, alternatim axillares, &amp; terminales.
 CAL. Perianthium monophyllum, campanulatum, deciduum, quadridentatum, coccineum, denticulis acutis.
